--- a/Aufgabe_2/Messungen/Auswertung.xlsx
+++ b/Aufgabe_2/Messungen/Auswertung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fatihbas37/Desktop/Messungen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fatihbas37/Desktop/MIS/MIS/Aufgabe_2/Messungen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDF03BB-D149-A644-9211-88C95F9304D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2987C67F-9B93-234B-9B27-94FF49AC21E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="480" windowWidth="23880" windowHeight="16280" xr2:uid="{2D049FF5-DF0C-1E40-B412-EFE8EAF04C84}"/>
   </bookViews>
@@ -20,32 +20,20 @@
     <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$J$2:$J$859</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Tabelle1!$L$1</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Tabelle1!$L$2:$L$859</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$J$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Tabelle1!$J$2:$J$859</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Tabelle1!$K$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Tabelle1!$K$2:$K$859</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$L$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Tabelle1!$L$2:$L$859</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Tabelle1!$L$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Tabelle1!$L$2:$L$859</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Tabelle1!$L$1</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">Tabelle1!$L$2:$L$859</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Tabelle1!$J$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Tabelle1!$J$2:$J$859</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$K$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Tabelle1!$K$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Tabelle1!$K$2:$K$859</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Tabelle1!$L$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Tabelle1!$L$2:$L$859</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Tabelle1!$J$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Tabelle1!$J$2:$J$859</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Tabelle1!$K$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Tabelle1!$K$2:$K$859</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Tabelle1!$L$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Tabelle1!$L$2:$L$859</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$K$2:$K$859</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$L$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$L$2:$L$859</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$J$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$J$2:$J$859</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$K$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Tabelle1!$K$2:$K$859</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$K$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$K$2:$K$859</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$L$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Tabelle1!$L$2:$L$859</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2858,8 +2846,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5735,8 +5724,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8534,8 +8524,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8684,28 +8675,55 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Bereichsklassifizierung alle Messwerte</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Bereichsklassifizierung alle Messwerte</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{40C4C2F4-76F9-E144-9938-43351D9A930D}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>a zu Hause</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8720,7 +8738,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{11190A65-16C5-B649-AD47-8F63DDE5D781}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>a im Park</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8735,7 +8753,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{B5D9C91D-C81E-4945-83FE-7796364FE49F}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>a auf Hügel</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8756,6 +8774,174 @@
       <cx:axis id="1" hidden="1">
         <cx:valScaling/>
         <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Bereichsklassifizierung Messung im Park</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5341B4EB-6942-D04B-89EA-52C65C604245}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>a im Park</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Bereichsklassifizierung Messung auf Hügel</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C6F0E23F-EC15-2E46-9C89-A6AC1A96F05F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>a auf Hügel</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -8884,6 +9070,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11045,6 +11311,1022 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11204,6 +12486,162 @@
             <a:xfrm>
               <a:off x="1676400" y="10198100"/>
               <a:ext cx="8750300" cy="4775200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagramm 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2762C7-678B-6C4E-8C99-2A443DDEE9D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1657350" y="15462250"/>
+              <a:ext cx="8769350" cy="5467350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Diagramm 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FCD60E-DB91-604A-8912-467CC5C95360}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1663700" y="21355050"/>
+              <a:ext cx="8750300" cy="5657850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11535,8 +12973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A859DB9-5A99-3143-B730-9B4D296C40D6}">
   <dimension ref="C1:L859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="C80" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
